--- a/data/pca/factorExposure/factorExposure_2017-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +720,82 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005665457443181202</v>
+        <v>-0.0116016429490473</v>
       </c>
       <c r="C2">
-        <v>0.01089683936277979</v>
+        <v>0.0390823666655744</v>
       </c>
       <c r="D2">
-        <v>0.001176138079976685</v>
+        <v>-0.0286319942257698</v>
       </c>
       <c r="E2">
-        <v>0.02186794665651796</v>
+        <v>-0.02645815283932175</v>
       </c>
       <c r="F2">
-        <v>0.05298616070814821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03194708647482913</v>
+      </c>
+      <c r="G2">
+        <v>-0.0142094580579329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05274705522658664</v>
+        <v>-0.05747183819057774</v>
       </c>
       <c r="C3">
-        <v>0.04428157027846524</v>
+        <v>0.07953397537420644</v>
       </c>
       <c r="D3">
-        <v>0.004307432126270008</v>
+        <v>-0.01386865338684505</v>
       </c>
       <c r="E3">
-        <v>-0.0365660581602012</v>
+        <v>-0.07632793569030415</v>
       </c>
       <c r="F3">
-        <v>0.2427201623628762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05790141904990231</v>
+      </c>
+      <c r="G3">
+        <v>-0.06847729421324286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03333923581697028</v>
+        <v>-0.05446558926960435</v>
       </c>
       <c r="C4">
-        <v>0.01698983245328112</v>
+        <v>0.06254932974792318</v>
       </c>
       <c r="D4">
-        <v>-0.02460658608544809</v>
+        <v>-0.02192215625158301</v>
       </c>
       <c r="E4">
-        <v>0.04247860273188966</v>
+        <v>0.00180878498952243</v>
       </c>
       <c r="F4">
-        <v>0.03717848270767871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01408703418600427</v>
+      </c>
+      <c r="G4">
+        <v>-0.03892434601641876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +812,220 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04315408799460489</v>
+        <v>-0.03208225727958159</v>
       </c>
       <c r="C6">
-        <v>0.0314144826413426</v>
+        <v>0.05679906749783069</v>
       </c>
       <c r="D6">
-        <v>-0.0151438052499178</v>
+        <v>-0.0159668673495862</v>
       </c>
       <c r="E6">
-        <v>0.06157785815362965</v>
+        <v>-0.002829220498076677</v>
       </c>
       <c r="F6">
-        <v>0.03916365530480292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01374958978671847</v>
+      </c>
+      <c r="G6">
+        <v>-0.02146502521975454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01768919837735423</v>
+        <v>-0.0177580042177668</v>
       </c>
       <c r="C7">
-        <v>0.02822464420966117</v>
+        <v>0.03809647958358837</v>
       </c>
       <c r="D7">
-        <v>-0.0671651783766266</v>
+        <v>-0.01255077469538937</v>
       </c>
       <c r="E7">
-        <v>-0.005981776381699688</v>
+        <v>0.01578720456995638</v>
       </c>
       <c r="F7">
-        <v>0.00726322878056705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008067423528264485</v>
+      </c>
+      <c r="G7">
+        <v>-0.07459975565300117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01168304840590785</v>
+        <v>0.005453332773501354</v>
       </c>
       <c r="C8">
-        <v>-0.01043599900861701</v>
+        <v>0.0133140451394572</v>
       </c>
       <c r="D8">
-        <v>-0.01420137448917086</v>
+        <v>-0.003712633973607038</v>
       </c>
       <c r="E8">
-        <v>0.01864767671174943</v>
+        <v>-0.01194133535439103</v>
       </c>
       <c r="F8">
-        <v>0.02208350687641363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02355520212265176</v>
+      </c>
+      <c r="G8">
+        <v>-0.02442788082679067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02457640232790189</v>
+        <v>-0.02740205481377227</v>
       </c>
       <c r="C9">
-        <v>0.02080979623797252</v>
+        <v>0.04205351264407472</v>
       </c>
       <c r="D9">
-        <v>-0.01445019609029943</v>
+        <v>-0.01519822360581603</v>
       </c>
       <c r="E9">
-        <v>0.0304315817551049</v>
+        <v>-0.0007325227731187473</v>
       </c>
       <c r="F9">
-        <v>0.05979879574806829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01751152767829286</v>
+      </c>
+      <c r="G9">
+        <v>-0.03034364789324934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07935738244744411</v>
+        <v>-0.08462883098400723</v>
       </c>
       <c r="C10">
-        <v>0.05134496996108819</v>
+        <v>-0.1853068474630079</v>
       </c>
       <c r="D10">
-        <v>0.04298094636811683</v>
+        <v>0.01903940132865321</v>
       </c>
       <c r="E10">
-        <v>-0.1529958082062966</v>
+        <v>-0.0170491100701286</v>
       </c>
       <c r="F10">
-        <v>0.03165789241546491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01473642658847773</v>
+      </c>
+      <c r="G10">
+        <v>-0.03565575415504484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01286370038851777</v>
+        <v>-0.03463115169201596</v>
       </c>
       <c r="C11">
-        <v>0.02454300719929569</v>
+        <v>0.05332610258957371</v>
       </c>
       <c r="D11">
-        <v>0.0007001101222411036</v>
+        <v>-0.0009779061206881897</v>
       </c>
       <c r="E11">
-        <v>0.04629245037175014</v>
+        <v>0.005748228624203804</v>
       </c>
       <c r="F11">
-        <v>0.016457916708443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02409773480077617</v>
+      </c>
+      <c r="G11">
+        <v>-0.01085468626397755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.02163977166553601</v>
+        <v>-0.03277744464428905</v>
       </c>
       <c r="C12">
-        <v>0.02385555481871852</v>
+        <v>0.04507040578237603</v>
       </c>
       <c r="D12">
-        <v>-0.007091223753234619</v>
+        <v>-0.005388202459357727</v>
       </c>
       <c r="E12">
-        <v>0.04401919290148393</v>
+        <v>0.01086984086135894</v>
       </c>
       <c r="F12">
-        <v>-0.008114967410339071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.004706495303183694</v>
+      </c>
+      <c r="G12">
+        <v>-0.01618650884187912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02368302885735512</v>
+        <v>-0.01023001302097911</v>
       </c>
       <c r="C13">
-        <v>0.006858844639700134</v>
+        <v>0.03296456697098634</v>
       </c>
       <c r="D13">
-        <v>-0.001346411208789798</v>
+        <v>-0.02452612490951102</v>
       </c>
       <c r="E13">
-        <v>0.02251824856195761</v>
+        <v>-0.0187622578688325</v>
       </c>
       <c r="F13">
-        <v>0.0387236597485805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02568297594607017</v>
+      </c>
+      <c r="G13">
+        <v>-0.02652468353192327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00934936325217775</v>
+        <v>-0.007375248594992043</v>
       </c>
       <c r="C14">
-        <v>0.01461954144377064</v>
+        <v>0.02484272554628688</v>
       </c>
       <c r="D14">
-        <v>-0.01361109790914332</v>
+        <v>-0.008230113941448043</v>
       </c>
       <c r="E14">
-        <v>0.007545508533116208</v>
+        <v>0.008119436527814695</v>
       </c>
       <c r="F14">
-        <v>0.01044513613840764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0004285120531962647</v>
+      </c>
+      <c r="G14">
+        <v>-0.03321194140653846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1042,36 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01227630405146407</v>
+        <v>-0.03114341647412677</v>
       </c>
       <c r="C16">
-        <v>0.02511411214270919</v>
+        <v>0.04293144351523122</v>
       </c>
       <c r="D16">
-        <v>-0.004915024135099914</v>
+        <v>-0.000627272500801451</v>
       </c>
       <c r="E16">
-        <v>0.04313395400420968</v>
+        <v>0.003957518737911144</v>
       </c>
       <c r="F16">
-        <v>0.01887425661518567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01152043329446908</v>
+      </c>
+      <c r="G16">
+        <v>-0.01522239496312761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1088,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1111,82 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01509822759431968</v>
+        <v>-0.02869917685223301</v>
       </c>
       <c r="C19">
-        <v>0.02042659195765693</v>
+        <v>0.05476501059657701</v>
       </c>
       <c r="D19">
-        <v>-0.005336215581194581</v>
+        <v>-0.01467093488796067</v>
       </c>
       <c r="E19">
-        <v>0.03956734010430314</v>
+        <v>-0.033727114461342</v>
       </c>
       <c r="F19">
-        <v>0.05645215050860165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0391084367076054</v>
+      </c>
+      <c r="G19">
+        <v>-0.0336353101976877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.005546124885213508</v>
+        <v>-0.01035562186855449</v>
       </c>
       <c r="C20">
-        <v>0.004018888186193678</v>
+        <v>0.03474583322332172</v>
       </c>
       <c r="D20">
-        <v>-0.003241220339517725</v>
+        <v>-0.01289699259121959</v>
       </c>
       <c r="E20">
-        <v>-0.0001411294883776887</v>
+        <v>-0.01817873590648244</v>
       </c>
       <c r="F20">
-        <v>0.02774438514828223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.007397277481125233</v>
+      </c>
+      <c r="G20">
+        <v>-0.02629810645829012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0219638427469131</v>
+        <v>-0.01224021754275886</v>
       </c>
       <c r="C21">
-        <v>0.03818405021770313</v>
+        <v>0.03336796967548188</v>
       </c>
       <c r="D21">
-        <v>-0.02020496944278638</v>
+        <v>-0.01562942860794954</v>
       </c>
       <c r="E21">
-        <v>0.01758516610739539</v>
+        <v>-0.02449714048974317</v>
       </c>
       <c r="F21">
-        <v>0.02365026229945159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0187981444235797</v>
+      </c>
+      <c r="G21">
+        <v>-0.04934005047438014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1203,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1226,82 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0117000425557911</v>
+        <v>-0.02518289914752632</v>
       </c>
       <c r="C24">
-        <v>0.02081338937648338</v>
+        <v>0.04611570584727216</v>
       </c>
       <c r="D24">
-        <v>-0.003050419466099586</v>
+        <v>-0.0059004009808825</v>
       </c>
       <c r="E24">
-        <v>0.03681212343109339</v>
+        <v>0.009651222684640651</v>
       </c>
       <c r="F24">
-        <v>0.01687677700291589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02131450380611992</v>
+      </c>
+      <c r="G24">
+        <v>-0.01381104974081032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02703655913725003</v>
+        <v>-0.04257134655146382</v>
       </c>
       <c r="C25">
-        <v>0.02594500549869134</v>
+        <v>0.05237777911351003</v>
       </c>
       <c r="D25">
-        <v>-0.001811864434910841</v>
+        <v>-0.009887561502135468</v>
       </c>
       <c r="E25">
-        <v>0.040737545092695</v>
+        <v>0.01575651165837417</v>
       </c>
       <c r="F25">
-        <v>0.03005494381302733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01489828909818799</v>
+      </c>
+      <c r="G25">
+        <v>-0.02011972815511748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01332588985677157</v>
+        <v>-0.007329401678325194</v>
       </c>
       <c r="C26">
-        <v>-0.004480604806218625</v>
+        <v>0.007664290636727158</v>
       </c>
       <c r="D26">
-        <v>-0.01054863613438125</v>
+        <v>-0.0236336631126479</v>
       </c>
       <c r="E26">
-        <v>0.0007188426617609982</v>
+        <v>-0.006379262301183563</v>
       </c>
       <c r="F26">
-        <v>0.02847435729678664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008276095997213174</v>
+      </c>
+      <c r="G26">
+        <v>-0.02442330219365324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1318,174 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.125328003534398</v>
+        <v>-0.1097161347325517</v>
       </c>
       <c r="C28">
-        <v>0.06478277811868097</v>
+        <v>-0.2267019770441884</v>
       </c>
       <c r="D28">
-        <v>0.05828295242576445</v>
+        <v>0.01054074800778484</v>
       </c>
       <c r="E28">
-        <v>-0.2237967491108593</v>
+        <v>-0.005761712413791895</v>
       </c>
       <c r="F28">
-        <v>0.01031548326340556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.008335902590756979</v>
+      </c>
+      <c r="G28">
+        <v>-0.05193101484274288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01428634109706134</v>
+        <v>-0.01234467302881193</v>
       </c>
       <c r="C29">
-        <v>0.01077592842955392</v>
+        <v>0.01824600594355824</v>
       </c>
       <c r="D29">
-        <v>-0.01064111727171434</v>
+        <v>-0.006945417384488733</v>
       </c>
       <c r="E29">
-        <v>0.007173741689249941</v>
+        <v>0.005351722364790298</v>
       </c>
       <c r="F29">
-        <v>0.01371198457646399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.006311497915087209</v>
+      </c>
+      <c r="G29">
+        <v>-0.02763750043659997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03376093040164498</v>
+        <v>-0.0381660170618838</v>
       </c>
       <c r="C30">
-        <v>0.01839967725486885</v>
+        <v>0.07197367788161561</v>
       </c>
       <c r="D30">
-        <v>0.04156631684363396</v>
+        <v>-0.02669500217452967</v>
       </c>
       <c r="E30">
-        <v>0.081378294122504</v>
+        <v>-0.01689143467428405</v>
       </c>
       <c r="F30">
-        <v>0.06411942258568271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04150063004242543</v>
+      </c>
+      <c r="G30">
+        <v>0.008640529896232535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01970548088495149</v>
+        <v>-0.04408957928188381</v>
       </c>
       <c r="C31">
-        <v>0.05209919122943197</v>
+        <v>0.02855715096623405</v>
       </c>
       <c r="D31">
-        <v>-0.007356161722089191</v>
+        <v>-0.002507689500479672</v>
       </c>
       <c r="E31">
-        <v>0.01914612475072084</v>
+        <v>0.01649790259907264</v>
       </c>
       <c r="F31">
-        <v>-0.003463620405756508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.03329715658629703</v>
+      </c>
+      <c r="G31">
+        <v>-0.0244057346998506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01196734949713457</v>
+        <v>-0.004320767615924015</v>
       </c>
       <c r="C32">
-        <v>0.01802735372568027</v>
+        <v>0.03605344919047662</v>
       </c>
       <c r="D32">
-        <v>-0.02563142357433624</v>
+        <v>0.004811875419048697</v>
       </c>
       <c r="E32">
-        <v>0.01988664613189091</v>
+        <v>-0.01572081904226181</v>
       </c>
       <c r="F32">
-        <v>0.03888540480169811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07297637200656314</v>
+      </c>
+      <c r="G32">
+        <v>-0.0545402221884726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02082639103324402</v>
+        <v>-0.02756988522260224</v>
       </c>
       <c r="C33">
-        <v>0.0249374990401685</v>
+        <v>0.05161521901378202</v>
       </c>
       <c r="D33">
-        <v>0.01681386252479836</v>
+        <v>-0.01376170645993186</v>
       </c>
       <c r="E33">
-        <v>0.03887269997024539</v>
+        <v>-0.0143738479818112</v>
       </c>
       <c r="F33">
-        <v>0.03580073731760339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02129606852128442</v>
+      </c>
+      <c r="G33">
+        <v>-0.01836109807771191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.008484028258003788</v>
+        <v>-0.04534745376945423</v>
       </c>
       <c r="C34">
-        <v>0.03184608671082542</v>
+        <v>0.05297314496697073</v>
       </c>
       <c r="D34">
-        <v>-0.01160273082492364</v>
+        <v>0.006276444121403822</v>
       </c>
       <c r="E34">
-        <v>0.04061822731398983</v>
+        <v>0.01476686594703847</v>
       </c>
       <c r="F34">
-        <v>0.01792705667812764</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02078147942157479</v>
+      </c>
+      <c r="G34">
+        <v>-0.02477153912933867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1502,36 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01731276825068769</v>
+        <v>-0.01053574200928441</v>
       </c>
       <c r="C36">
-        <v>0.008191986677177463</v>
+        <v>0.004380170916313405</v>
       </c>
       <c r="D36">
-        <v>-0.004186836480178484</v>
+        <v>-0.0110018441136603</v>
       </c>
       <c r="E36">
-        <v>0.002469912388809033</v>
+        <v>0.002404302142437975</v>
       </c>
       <c r="F36">
-        <v>0.01267315084293038</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0007567388505083784</v>
+      </c>
+      <c r="G36">
+        <v>-0.01661707339944455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1548,174 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0005672419149406414</v>
+        <v>-0.03146153166020939</v>
       </c>
       <c r="C38">
-        <v>0.03319483235122295</v>
+        <v>0.02291387891555487</v>
       </c>
       <c r="D38">
-        <v>0.004544871798453144</v>
+        <v>0.008422598700130514</v>
       </c>
       <c r="E38">
-        <v>0.01623380298738775</v>
+        <v>0.002772038292386991</v>
       </c>
       <c r="F38">
-        <v>0.04524614489511471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003827420946763003</v>
+      </c>
+      <c r="G38">
+        <v>-0.02417814932741134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.008349274556315556</v>
+        <v>-0.03015606578620622</v>
       </c>
       <c r="C39">
-        <v>0.01545140175703873</v>
+        <v>0.0831698854676718</v>
       </c>
       <c r="D39">
-        <v>-0.01663529426571505</v>
+        <v>-0.01136304164988831</v>
       </c>
       <c r="E39">
-        <v>0.06907807517779654</v>
+        <v>-0.006971559679815152</v>
       </c>
       <c r="F39">
-        <v>0.05020786209701576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.03785656144727782</v>
+      </c>
+      <c r="G39">
+        <v>-0.01684182354525863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01773867459939137</v>
+        <v>-0.01849295880434993</v>
       </c>
       <c r="C40">
-        <v>0.02001507273858777</v>
+        <v>0.03169789569221843</v>
       </c>
       <c r="D40">
-        <v>-0.001517823875494925</v>
+        <v>-0.01281045757258121</v>
       </c>
       <c r="E40">
-        <v>0.04400677382440012</v>
+        <v>-0.01162163032880689</v>
       </c>
       <c r="F40">
-        <v>0.03656703657692773</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02341215322271859</v>
+      </c>
+      <c r="G40">
+        <v>-0.01743902266360326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01162220520706315</v>
+        <v>-0.01131345142126416</v>
       </c>
       <c r="C41">
-        <v>0.01358591644384068</v>
+        <v>-0.002151258620972326</v>
       </c>
       <c r="D41">
-        <v>0.004473645718017773</v>
+        <v>-0.003198331640413874</v>
       </c>
       <c r="E41">
-        <v>-0.009516995260859843</v>
+        <v>0.007314356898089973</v>
       </c>
       <c r="F41">
-        <v>0.004683696151135546</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0005831621081543552</v>
+      </c>
+      <c r="G41">
+        <v>-0.00986427737026003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.1198432134939673</v>
+        <v>-0.03760693403327789</v>
       </c>
       <c r="C42">
-        <v>0.06126767539779705</v>
+        <v>0.05481908238904645</v>
       </c>
       <c r="D42">
-        <v>0.08958086272447571</v>
+        <v>-0.1030669883260342</v>
       </c>
       <c r="E42">
-        <v>0.1595329477493727</v>
+        <v>-0.07236792735221534</v>
       </c>
       <c r="F42">
-        <v>0.1844961449036456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1157188459512358</v>
+      </c>
+      <c r="G42">
+        <v>0.2214846604734589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01639756110241711</v>
+        <v>-0.02628508536253727</v>
       </c>
       <c r="C43">
-        <v>0.01120148432298799</v>
+        <v>0.006653694377255147</v>
       </c>
       <c r="D43">
-        <v>0.003896115255199259</v>
+        <v>-0.003259639409884329</v>
       </c>
       <c r="E43">
-        <v>-0.004187442647694332</v>
+        <v>0.004625664186454035</v>
       </c>
       <c r="F43">
-        <v>0.006992297979635138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0003265958294397481</v>
+      </c>
+      <c r="G43">
+        <v>-0.01336837985178898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-7.981357242049318e-05</v>
+        <v>-0.01630554946181455</v>
       </c>
       <c r="C44">
-        <v>0.01182892959401978</v>
+        <v>0.04894336919218727</v>
       </c>
       <c r="D44">
-        <v>-0.01268685016630524</v>
+        <v>-0.006408230417042168</v>
       </c>
       <c r="E44">
-        <v>0.01642826750851322</v>
+        <v>-0.01661165920232574</v>
       </c>
       <c r="F44">
-        <v>0.07273724596466519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02221852429158326</v>
+      </c>
+      <c r="G44">
+        <v>-0.03128795048665645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1732,82 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007416217916206734</v>
+        <v>-0.001632326888085882</v>
       </c>
       <c r="C46">
-        <v>0.006762870956891438</v>
+        <v>0.01528544661405268</v>
       </c>
       <c r="D46">
-        <v>-0.007337093774884075</v>
+        <v>-0.0114092743154013</v>
       </c>
       <c r="E46">
-        <v>0.02517094217784467</v>
+        <v>0.006886638025609141</v>
       </c>
       <c r="F46">
-        <v>0.0339419669612046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.008033477678712979</v>
+      </c>
+      <c r="G46">
+        <v>-0.02068514043951969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.03691000735664138</v>
+        <v>-0.07253304370860252</v>
       </c>
       <c r="C47">
-        <v>0.0670058795350071</v>
+        <v>0.06124928364666394</v>
       </c>
       <c r="D47">
-        <v>0.007206052909811936</v>
+        <v>0.005315301047539418</v>
       </c>
       <c r="E47">
-        <v>0.03496327582508523</v>
+        <v>0.01960428829322852</v>
       </c>
       <c r="F47">
-        <v>-0.03603934000780598</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.06246467310400538</v>
+      </c>
+      <c r="G47">
+        <v>-0.01462758161109035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02143265584833169</v>
+        <v>-0.0188067129327287</v>
       </c>
       <c r="C48">
-        <v>0.01961099377828713</v>
+        <v>0.008754091946888901</v>
       </c>
       <c r="D48">
-        <v>-0.00303553014771008</v>
+        <v>-0.0005773748241868064</v>
       </c>
       <c r="E48">
-        <v>0.00826410351016128</v>
+        <v>0.006163183366515177</v>
       </c>
       <c r="F48">
-        <v>0.01604773178910949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01353080597905781</v>
+      </c>
+      <c r="G48">
+        <v>-0.01923181136017192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1824,59 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03409900704642545</v>
+        <v>-0.07548540507075491</v>
       </c>
       <c r="C50">
-        <v>0.0744347078007517</v>
+        <v>0.062812145696269</v>
       </c>
       <c r="D50">
-        <v>-0.02446970135079252</v>
+        <v>0.004008471732647173</v>
       </c>
       <c r="E50">
-        <v>0.04755375772418519</v>
+        <v>0.02064204816701927</v>
       </c>
       <c r="F50">
-        <v>-0.01560802417988285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.06048849324921312</v>
+      </c>
+      <c r="G50">
+        <v>-0.03864886578885555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01002317485415082</v>
+        <v>-0.01693201645319329</v>
       </c>
       <c r="C51">
-        <v>0.005524559691267444</v>
+        <v>0.02749976650610978</v>
       </c>
       <c r="D51">
-        <v>-0.00911770250864106</v>
+        <v>-0.008574005076512228</v>
       </c>
       <c r="E51">
-        <v>-0.01820146966683122</v>
+        <v>-0.006364032259111116</v>
       </c>
       <c r="F51">
-        <v>0.056793826204365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03676034936087832</v>
+      </c>
+      <c r="G51">
+        <v>-0.03994173348527962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +1893,220 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.05257164699781242</v>
+        <v>-0.09708796866187934</v>
       </c>
       <c r="C53">
-        <v>0.07893516058647478</v>
+        <v>0.07480220032326497</v>
       </c>
       <c r="D53">
-        <v>-0.01237106831273773</v>
+        <v>0.006276531076069324</v>
       </c>
       <c r="E53">
-        <v>0.06516656970890039</v>
+        <v>0.04247809835962722</v>
       </c>
       <c r="F53">
-        <v>-0.06078176520955228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0662417951849722</v>
+      </c>
+      <c r="G53">
+        <v>-0.01695314572248647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01513561520837995</v>
+        <v>-0.02818690744666956</v>
       </c>
       <c r="C54">
-        <v>0.02781684380044569</v>
+        <v>0.004206968910292424</v>
       </c>
       <c r="D54">
-        <v>-0.00494244976922689</v>
+        <v>0.004443045206022454</v>
       </c>
       <c r="E54">
-        <v>0.003450548035041371</v>
+        <v>-3.268277129816169e-05</v>
       </c>
       <c r="F54">
-        <v>8.346278081305287e-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.004756166039203795</v>
+      </c>
+      <c r="G54">
+        <v>-0.02662114009893256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.03382774516392115</v>
+        <v>-0.0741710340817805</v>
       </c>
       <c r="C55">
-        <v>0.0689750541918896</v>
+        <v>0.06808439989081976</v>
       </c>
       <c r="D55">
-        <v>-0.002696589366256536</v>
+        <v>0.00529261926447047</v>
       </c>
       <c r="E55">
-        <v>0.07078672157402265</v>
+        <v>0.0305847145863199</v>
       </c>
       <c r="F55">
-        <v>-0.04390301753558473</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06012297073298919</v>
+      </c>
+      <c r="G55">
+        <v>-0.005040279234323675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.08307448812880111</v>
+        <v>-0.1495601065714828</v>
       </c>
       <c r="C56">
-        <v>0.1076275535276757</v>
+        <v>0.09648572216166232</v>
       </c>
       <c r="D56">
-        <v>-0.00255853196338457</v>
+        <v>0.01525289517203529</v>
       </c>
       <c r="E56">
-        <v>0.09090805757729133</v>
+        <v>0.04496097282484474</v>
       </c>
       <c r="F56">
-        <v>-0.09050942410051704</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1026474591000098</v>
+      </c>
+      <c r="G56">
+        <v>0.005165990828549682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.045122716454515</v>
+        <v>-0.01335730165187324</v>
       </c>
       <c r="C57">
-        <v>0.005914712414907576</v>
+        <v>0.01181551119247953</v>
       </c>
       <c r="D57">
-        <v>-0.004583004285056095</v>
+        <v>-0.02363178005138071</v>
       </c>
       <c r="E57">
-        <v>0.03550012360340869</v>
+        <v>-0.02939087909747975</v>
       </c>
       <c r="F57">
-        <v>0.03751443154079404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01406092764040246</v>
+      </c>
+      <c r="G57">
+        <v>-0.02270559965812403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1063654259635329</v>
+        <v>-0.06439975707043943</v>
       </c>
       <c r="C58">
-        <v>0.06416240226487219</v>
+        <v>0.07019824002831496</v>
       </c>
       <c r="D58">
-        <v>0.1089476605718018</v>
+        <v>-0.01772885269340406</v>
       </c>
       <c r="E58">
-        <v>0.1488218870757782</v>
+        <v>-0.941613646236643</v>
       </c>
       <c r="F58">
-        <v>0.5111019496013394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2498085813288342</v>
+      </c>
+      <c r="G58">
+        <v>-0.06541821681854669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1341301315349502</v>
+        <v>-0.148697227150603</v>
       </c>
       <c r="C59">
-        <v>0.05829482700170611</v>
+        <v>-0.2159967263415893</v>
       </c>
       <c r="D59">
-        <v>0.07720111170805158</v>
+        <v>0.0177170021425564</v>
       </c>
       <c r="E59">
-        <v>-0.1894451079500531</v>
+        <v>-0.01613183648747423</v>
       </c>
       <c r="F59">
-        <v>0.05146481294269828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01011140265397057</v>
+      </c>
+      <c r="G59">
+        <v>-0.01844329087403695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1550279163835452</v>
+        <v>-0.2953044359063625</v>
       </c>
       <c r="C60">
-        <v>0.1204802256149469</v>
+        <v>0.08139541310454702</v>
       </c>
       <c r="D60">
-        <v>0.05237298519984641</v>
+        <v>-0.006331655006110671</v>
       </c>
       <c r="E60">
-        <v>0.06246618876774496</v>
+        <v>-0.03943197230415365</v>
       </c>
       <c r="F60">
-        <v>0.2118055999481207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3864988133964562</v>
+      </c>
+      <c r="G60">
+        <v>0.0395922438146403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01934019208072096</v>
+        <v>-0.0304876551639092</v>
       </c>
       <c r="C61">
-        <v>0.02499618086751902</v>
+        <v>0.06384632410637776</v>
       </c>
       <c r="D61">
-        <v>-0.00607944488279165</v>
+        <v>-0.004760715516173141</v>
       </c>
       <c r="E61">
-        <v>0.05859491777772157</v>
+        <v>-0.002346337208644511</v>
       </c>
       <c r="F61">
-        <v>0.03285033076392385</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02408996797151436</v>
+      </c>
+      <c r="G61">
+        <v>-0.01738726066629907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2123,174 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008957566408789513</v>
+        <v>-0.01345555068378463</v>
       </c>
       <c r="C63">
-        <v>0.01605316219848281</v>
+        <v>0.02636254981193958</v>
       </c>
       <c r="D63">
-        <v>-0.006633325145590888</v>
+        <v>-0.007490341061102575</v>
       </c>
       <c r="E63">
-        <v>0.02021771623019964</v>
+        <v>0.01672838141076276</v>
       </c>
       <c r="F63">
-        <v>-0.002624208326971573</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01183468441126528</v>
+      </c>
+      <c r="G63">
+        <v>-0.02467070510808776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02562617271247011</v>
+        <v>-0.04594391354083884</v>
       </c>
       <c r="C64">
-        <v>0.0412220241176361</v>
+        <v>0.03534113405280516</v>
       </c>
       <c r="D64">
-        <v>-0.001223237999225359</v>
+        <v>-0.004312399230115368</v>
       </c>
       <c r="E64">
-        <v>0.04293577653151273</v>
+        <v>0.01412004994460148</v>
       </c>
       <c r="F64">
-        <v>0.01789986343451702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01305716790767216</v>
+      </c>
+      <c r="G64">
+        <v>-0.01436902385211194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.04808646951664337</v>
+        <v>-0.07892983205051582</v>
       </c>
       <c r="C65">
-        <v>0.03770579378020849</v>
+        <v>0.067030904423534</v>
       </c>
       <c r="D65">
-        <v>-0.01397233512019937</v>
+        <v>-0.01470522455061268</v>
       </c>
       <c r="E65">
-        <v>0.06538235495914872</v>
+        <v>1.607591076167275e-05</v>
       </c>
       <c r="F65">
-        <v>0.03629829589114322</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03711359761516622</v>
+      </c>
+      <c r="G65">
+        <v>-0.01032333303705492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01858172561025929</v>
+        <v>-0.05316918941749758</v>
       </c>
       <c r="C66">
-        <v>0.03231140375213016</v>
+        <v>0.1163702230457925</v>
       </c>
       <c r="D66">
-        <v>0.002927968891670664</v>
+        <v>-0.01042999068285568</v>
       </c>
       <c r="E66">
-        <v>0.0929688723452501</v>
+        <v>-0.01023742548170338</v>
       </c>
       <c r="F66">
-        <v>0.03371762182628406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04594300318965543</v>
+      </c>
+      <c r="G66">
+        <v>-0.00657849713564981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.01939745190595079</v>
+        <v>-0.05672392785004802</v>
       </c>
       <c r="C67">
-        <v>0.04017616936007976</v>
+        <v>0.02528561387930816</v>
       </c>
       <c r="D67">
-        <v>0.00740735384308379</v>
+        <v>0.007212659154096068</v>
       </c>
       <c r="E67">
-        <v>0.01835978235062083</v>
+        <v>0.008668508221244726</v>
       </c>
       <c r="F67">
-        <v>0.02853672077042994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.002604059668166363</v>
+      </c>
+      <c r="G67">
+        <v>-0.02432215455418277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1351356399127319</v>
+        <v>-0.1220119511878485</v>
       </c>
       <c r="C68">
-        <v>0.03551025027648588</v>
+        <v>-0.2698652745880691</v>
       </c>
       <c r="D68">
-        <v>0.06646084304600695</v>
+        <v>-0.0006807763465838468</v>
       </c>
       <c r="E68">
-        <v>-0.2021952004584775</v>
+        <v>-0.01271381865913239</v>
       </c>
       <c r="F68">
-        <v>0.01622595717074898</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01820347056889901</v>
+      </c>
+      <c r="G68">
+        <v>-0.01849400896830449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02327843066519652</v>
+        <v>-0.075740889868903</v>
       </c>
       <c r="C69">
-        <v>0.06106709139430377</v>
+        <v>0.0594669675673426</v>
       </c>
       <c r="D69">
-        <v>0.003980702110210578</v>
+        <v>0.009804818846822288</v>
       </c>
       <c r="E69">
-        <v>0.03864256792015362</v>
+        <v>0.03622686270313524</v>
       </c>
       <c r="F69">
-        <v>-0.02662645488136135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03962035662764675</v>
+      </c>
+      <c r="G69">
+        <v>-0.01160699019379311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2307,197 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1158227408453755</v>
+        <v>-0.1229299430590459</v>
       </c>
       <c r="C71">
-        <v>0.04494819914325871</v>
+        <v>-0.227334426005573</v>
       </c>
       <c r="D71">
-        <v>0.05316265006857217</v>
+        <v>0.008205531271364844</v>
       </c>
       <c r="E71">
-        <v>-0.1959665469211731</v>
+        <v>-0.02072622644030474</v>
       </c>
       <c r="F71">
-        <v>0.02873838112438057</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02374617391082081</v>
+      </c>
+      <c r="G71">
+        <v>-0.03195457538395121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.05145409830168444</v>
+        <v>-0.08302928271457032</v>
       </c>
       <c r="C72">
-        <v>0.1214668928971657</v>
+        <v>0.08039631838573617</v>
       </c>
       <c r="D72">
-        <v>0.01189622143641792</v>
+        <v>0.009401685732563751</v>
       </c>
       <c r="E72">
-        <v>0.1421679048061949</v>
+        <v>0.01831419218856652</v>
       </c>
       <c r="F72">
-        <v>0.1544734891490905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04091684657394455</v>
+      </c>
+      <c r="G72">
+        <v>0.005937502850417651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1834795359503273</v>
+        <v>-0.4060904353376052</v>
       </c>
       <c r="C73">
-        <v>0.1448924851284762</v>
+        <v>0.09943470736320181</v>
       </c>
       <c r="D73">
-        <v>0.1066205572941614</v>
+        <v>-0.009959066632280952</v>
       </c>
       <c r="E73">
-        <v>0.1125012432498654</v>
+        <v>-0.08910804088956201</v>
       </c>
       <c r="F73">
-        <v>0.2917886567471361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5322364657788337</v>
+      </c>
+      <c r="G73">
+        <v>0.09319954291482781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.06596379901948868</v>
+        <v>-0.1185569951669042</v>
       </c>
       <c r="C74">
-        <v>0.1113518259329428</v>
+        <v>0.1138034063108121</v>
       </c>
       <c r="D74">
-        <v>0.009568258182527954</v>
+        <v>0.0112031215589144</v>
       </c>
       <c r="E74">
-        <v>0.09345958941663748</v>
+        <v>0.04037470074467231</v>
       </c>
       <c r="F74">
-        <v>-0.0834733020694309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0736393817566099</v>
+      </c>
+      <c r="G74">
+        <v>-0.01000536324017047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1522601993397321</v>
+        <v>-0.2654928401347464</v>
       </c>
       <c r="C75">
-        <v>0.1936719124192233</v>
+        <v>0.1395623425622277</v>
       </c>
       <c r="D75">
-        <v>0.02162965825394924</v>
+        <v>0.03219988596152677</v>
       </c>
       <c r="E75">
-        <v>0.1482191257126689</v>
+        <v>0.0673923435154186</v>
       </c>
       <c r="F75">
-        <v>-0.1589129674650863</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2203432686977662</v>
+      </c>
+      <c r="G75">
+        <v>0.0401805308901539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1236253184979092</v>
+        <v>-0.1437441080418031</v>
       </c>
       <c r="C76">
-        <v>0.1993185904025064</v>
+        <v>0.1181738817463652</v>
       </c>
       <c r="D76">
-        <v>0.0006164145143404486</v>
+        <v>0.02311386606202144</v>
       </c>
       <c r="E76">
-        <v>0.1531043530703837</v>
+        <v>0.07287732319049242</v>
       </c>
       <c r="F76">
-        <v>-0.2267955485520471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1402333503833335</v>
+      </c>
+      <c r="G76">
+        <v>0.002303288485474001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02967938630517483</v>
+        <v>-0.06065801548912774</v>
       </c>
       <c r="C77">
-        <v>0.02171572326167345</v>
+        <v>0.05978768704990407</v>
       </c>
       <c r="D77">
-        <v>-0.008305151975612102</v>
+        <v>-0.01141094949201325</v>
       </c>
       <c r="E77">
-        <v>0.05774977389839583</v>
+        <v>-0.03079805434760291</v>
       </c>
       <c r="F77">
-        <v>0.05953446525558807</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01748346412441103</v>
+      </c>
+      <c r="G77">
+        <v>-0.03690449299421937</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0222229738971679</v>
+        <v>-0.04130322536220811</v>
       </c>
       <c r="C78">
-        <v>0.0150866750930048</v>
+        <v>0.05279334253013487</v>
       </c>
       <c r="D78">
-        <v>-0.01339913193995684</v>
+        <v>-0.005071853585451308</v>
       </c>
       <c r="E78">
-        <v>0.05008435055628044</v>
+        <v>-0.01714399388002597</v>
       </c>
       <c r="F78">
-        <v>0.06326877339100784</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03987632460497283</v>
+      </c>
+      <c r="G78">
+        <v>-0.02964982786973594</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2514,105 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.08527421440333857</v>
+        <v>-0.06492201046931161</v>
       </c>
       <c r="C80">
-        <v>0.3266715791767931</v>
+        <v>0.07762079750768797</v>
       </c>
       <c r="D80">
-        <v>-0.8896954636520447</v>
+        <v>-0.01329953975291235</v>
       </c>
       <c r="E80">
-        <v>-0.2108150393550965</v>
+        <v>0.07497139800937565</v>
       </c>
       <c r="F80">
-        <v>0.1136873939370717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01377169375250217</v>
+      </c>
+      <c r="G80">
+        <v>-0.923326368627177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1065382248832734</v>
+        <v>-0.1489632428737338</v>
       </c>
       <c r="C81">
-        <v>0.1518704230008412</v>
+        <v>0.08933572914669441</v>
       </c>
       <c r="D81">
-        <v>0.005102912517102058</v>
+        <v>0.01753563524175937</v>
       </c>
       <c r="E81">
-        <v>0.1095978556956801</v>
+        <v>0.04927581316962635</v>
       </c>
       <c r="F81">
-        <v>-0.1210064558222707</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1369086764074376</v>
+      </c>
+      <c r="G81">
+        <v>-0.001682760924022113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.04245646797582464</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03214816332470156</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002248586845028816</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01999686044875492</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003277970440909253</v>
+      </c>
+      <c r="G82">
+        <v>0.004720869669939002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02589076410360575</v>
+        <v>-0.0299606868045399</v>
       </c>
       <c r="C83">
-        <v>0.02603293494928251</v>
+        <v>0.01897081283561308</v>
       </c>
       <c r="D83">
-        <v>0.005876106745021582</v>
+        <v>-0.004787498531552703</v>
       </c>
       <c r="E83">
-        <v>0.01416403549669563</v>
+        <v>-0.02558639353032977</v>
       </c>
       <c r="F83">
-        <v>0.04978153604704955</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02172256006939925</v>
+      </c>
+      <c r="G83">
+        <v>-0.0270389260555907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2629,266 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1455772459038407</v>
+        <v>-0.2435614992369574</v>
       </c>
       <c r="C85">
-        <v>0.1711393902551792</v>
+        <v>0.1460907085382394</v>
       </c>
       <c r="D85">
-        <v>0.01781214321571395</v>
+        <v>0.02087217638094779</v>
       </c>
       <c r="E85">
-        <v>0.1887083163250256</v>
+        <v>0.1104699550663023</v>
       </c>
       <c r="F85">
-        <v>-0.1683642855646501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2116062749196051</v>
+      </c>
+      <c r="G85">
+        <v>0.06591568403232639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01331660713300534</v>
+        <v>-0.009394703253679321</v>
       </c>
       <c r="C86">
-        <v>0.03735169295973711</v>
+        <v>0.02273889067983437</v>
       </c>
       <c r="D86">
-        <v>-0.001514726334441246</v>
+        <v>-0.00956777398208399</v>
       </c>
       <c r="E86">
-        <v>0.01801656033527354</v>
+        <v>-0.01690030329336371</v>
       </c>
       <c r="F86">
-        <v>0.06199767915243456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02109537473722985</v>
+      </c>
+      <c r="G86">
+        <v>-0.05151726626584548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01465117683404892</v>
+        <v>-0.0168667056084747</v>
       </c>
       <c r="C87">
-        <v>0.02138623551633514</v>
+        <v>0.02643082135136071</v>
       </c>
       <c r="D87">
-        <v>-0.006858297017169332</v>
+        <v>-0.01101797634097136</v>
       </c>
       <c r="E87">
-        <v>0.03266731101583451</v>
+        <v>-0.07764802983291373</v>
       </c>
       <c r="F87">
-        <v>0.1087171348921481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0590905992477683</v>
+      </c>
+      <c r="G87">
+        <v>-0.04124552031937939</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04002943303154765</v>
+        <v>-0.08726882078430107</v>
       </c>
       <c r="C88">
-        <v>0.03885066448232219</v>
+        <v>0.05213165775538008</v>
       </c>
       <c r="D88">
-        <v>0.01323568817403109</v>
+        <v>-0.02044022790855777</v>
       </c>
       <c r="E88">
-        <v>0.0123132324549527</v>
+        <v>0.01384118226751142</v>
       </c>
       <c r="F88">
-        <v>0.008192441871913779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0001280241160860127</v>
+      </c>
+      <c r="G88">
+        <v>-0.01807456053166747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2378138984578004</v>
+        <v>-0.2139119674762945</v>
       </c>
       <c r="C89">
-        <v>0.07475170025651473</v>
+        <v>-0.3778068208005672</v>
       </c>
       <c r="D89">
-        <v>0.1362914536920377</v>
+        <v>0.01039637223361686</v>
       </c>
       <c r="E89">
-        <v>-0.3499895309773219</v>
+        <v>0.0136148903035104</v>
       </c>
       <c r="F89">
-        <v>0.002499612781877248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02776793726366156</v>
+      </c>
+      <c r="G89">
+        <v>-0.02789626477846643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1570143992318626</v>
+        <v>-0.1774682919766161</v>
       </c>
       <c r="C90">
-        <v>0.03106666775523219</v>
+        <v>-0.3396284992628842</v>
       </c>
       <c r="D90">
-        <v>0.110151507746646</v>
+        <v>0.01259682800537927</v>
       </c>
       <c r="E90">
-        <v>-0.2853982822816704</v>
+        <v>-0.004018185727945622</v>
       </c>
       <c r="F90">
-        <v>-0.05018279974549616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04089777291892951</v>
+      </c>
+      <c r="G90">
+        <v>-0.002770138217221593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1416006544980987</v>
+        <v>-0.2165882495630869</v>
       </c>
       <c r="C91">
-        <v>0.2099049284346087</v>
+        <v>0.1321270029414749</v>
       </c>
       <c r="D91">
-        <v>0.0273012022541721</v>
+        <v>0.02636162798821874</v>
       </c>
       <c r="E91">
-        <v>0.1805434026790565</v>
+        <v>0.0906125842595199</v>
       </c>
       <c r="F91">
-        <v>-0.2361264687692937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1904534027051606</v>
+      </c>
+      <c r="G91">
+        <v>0.02418890112057201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2193759029145634</v>
+        <v>-0.209298443455629</v>
       </c>
       <c r="C92">
-        <v>0.1832868478598196</v>
+        <v>-0.2744460846855362</v>
       </c>
       <c r="D92">
-        <v>0.1341091049556706</v>
+        <v>0.05636805835493356</v>
       </c>
       <c r="E92">
-        <v>-0.267281402769255</v>
+        <v>0.007694061059132927</v>
       </c>
       <c r="F92">
-        <v>-0.1471053580860017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1353351163891765</v>
+      </c>
+      <c r="G92">
+        <v>-0.05427108673702145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2013692361114091</v>
+        <v>-0.200521543299764</v>
       </c>
       <c r="C93">
-        <v>0.07188808070050359</v>
+        <v>-0.3363320333627269</v>
       </c>
       <c r="D93">
-        <v>0.1521466356463913</v>
+        <v>0.01946221232492421</v>
       </c>
       <c r="E93">
-        <v>-0.3382417877429066</v>
+        <v>-0.01434279421547281</v>
       </c>
       <c r="F93">
-        <v>-0.0001265189683485219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01788476348080105</v>
+      </c>
+      <c r="G93">
+        <v>0.0009902332782669887</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2070418992276212</v>
+        <v>-0.2859014296812822</v>
       </c>
       <c r="C94">
-        <v>0.2087439238667371</v>
+        <v>0.145147848064086</v>
       </c>
       <c r="D94">
-        <v>0.05943098413981106</v>
+        <v>0.01476441427516535</v>
       </c>
       <c r="E94">
-        <v>0.1778134921614561</v>
+        <v>0.1022922404314132</v>
       </c>
       <c r="F94">
-        <v>-0.2483859397607254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3686513789786026</v>
+      </c>
+      <c r="G94">
+        <v>0.1288623628846212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.03669981160783317</v>
+        <v>-0.08121356236527043</v>
       </c>
       <c r="C95">
-        <v>0.08255362146842839</v>
+        <v>0.07516733720088177</v>
       </c>
       <c r="D95">
-        <v>0.09158459718009082</v>
+        <v>0.008189083389675176</v>
       </c>
       <c r="E95">
-        <v>0.05403218100195196</v>
+        <v>-0.08076737270168176</v>
       </c>
       <c r="F95">
-        <v>0.01270325896855769</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1590536901527301</v>
+      </c>
+      <c r="G95">
+        <v>0.06012195369898179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +2905,13 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +2928,36 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1470048537043578</v>
+        <v>-0.2142761263823274</v>
       </c>
       <c r="C98">
-        <v>0.1288074049683165</v>
+        <v>0.04209417671177693</v>
       </c>
       <c r="D98">
-        <v>0.07628884681513406</v>
+        <v>0.01983437176438552</v>
       </c>
       <c r="E98">
-        <v>0.0411347092044045</v>
+        <v>-0.07616002832699753</v>
       </c>
       <c r="F98">
-        <v>0.3004160831026132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2550085522576332</v>
+      </c>
+      <c r="G98">
+        <v>0.02584391218665748</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +2974,13 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +2997,100 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02365521419221312</v>
+        <v>-0.01375533261606559</v>
       </c>
       <c r="C101">
-        <v>0.01778190321910134</v>
+        <v>0.01937975249392622</v>
       </c>
       <c r="D101">
-        <v>-0.002548188940437172</v>
+        <v>-0.008059449310583744</v>
       </c>
       <c r="E101">
-        <v>0.02010229738784301</v>
+        <v>-0.03324989565041986</v>
       </c>
       <c r="F101">
-        <v>0.1075819235766303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02671806554513242</v>
+      </c>
+      <c r="G101">
+        <v>-0.03446315617735134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.09498619066246181</v>
+        <v>-0.1268160560456286</v>
       </c>
       <c r="C102">
-        <v>0.09287276801324638</v>
+        <v>0.07693555618614839</v>
       </c>
       <c r="D102">
-        <v>0.009783200390502575</v>
+        <v>0.0007793111734152225</v>
       </c>
       <c r="E102">
-        <v>0.08474137067173337</v>
+        <v>0.04439200618710672</v>
       </c>
       <c r="F102">
-        <v>-0.1029959794031961</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06382043707334809</v>
+      </c>
+      <c r="G102">
+        <v>0.0180339399814472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.01927287594823624</v>
+        <v>-0.006329840097687705</v>
       </c>
       <c r="C103">
-        <v>0.02794958595377599</v>
+        <v>0.005864690596942139</v>
       </c>
       <c r="D103">
-        <v>-0.01228880065842993</v>
+        <v>-0.0002847382367072044</v>
       </c>
       <c r="E103">
-        <v>0.02474705637303499</v>
+        <v>0.002125513767139787</v>
       </c>
       <c r="F103">
-        <v>-0.01205079151894217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01049341240493927</v>
+      </c>
+      <c r="G103">
+        <v>-0.01301202642755279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.6749002595611271</v>
+        <v>-0.0439824524970257</v>
       </c>
       <c r="C104">
-        <v>-0.6688849221405003</v>
+        <v>-0.04692739687069307</v>
       </c>
       <c r="D104">
-        <v>-0.2289054827622131</v>
+        <v>-0.9858279768469546</v>
       </c>
       <c r="E104">
-        <v>0.1566430116641717</v>
+        <v>0.0415657207113784</v>
       </c>
       <c r="F104">
-        <v>-0.05601596820051818</v>
+        <v>-0.03510156786180581</v>
+      </c>
+      <c r="G104">
+        <v>0.001839607278000087</v>
       </c>
     </row>
   </sheetData>
